--- a/docs/YourWeek_Progress.xlsx
+++ b/docs/YourWeek_Progress.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacannata/YourWeek/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolacannata/Desktop/GitHub/YourWeek/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF0204E-C47D-2C46-AD8D-9A2E0615C406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84430A9-FFCC-744B-B7F2-0B2CE751C637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{9327F8D6-4F37-4E25-8083-20A17765DC2F}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20180" xr2:uid="{9327F8D6-4F37-4E25-8083-20A17765DC2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,9 +154,6 @@
     <t>Project Features</t>
   </si>
   <si>
-    <t>Fattibility Development</t>
-  </si>
-  <si>
     <t>Finding Client base</t>
   </si>
   <si>
@@ -180,6 +177,9 @@
   </si>
   <si>
     <t>x/10/2025</t>
+  </si>
+  <si>
+    <t>Feasibility Development</t>
   </si>
 </sst>
 </file>
@@ -657,6 +657,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,21 +680,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1062,8 +1062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490757F6-93EC-4607-8435-BB8805CD3E41}">
   <dimension ref="C2:AU39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="142" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="142" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1081,78 +1081,78 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:47" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="66"/>
+      <c r="D2" s="64"/>
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="3:47" x14ac:dyDescent="0.2">
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="62"/>
+      <c r="D3" s="67"/>
       <c r="H3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="63" t="str">
+      <c r="I3" s="61" t="str">
         <f>TEXT(I5,"MMM")</f>
         <v>Oct</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="63" t="str">
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="61" t="str">
         <f>TEXT(M5,"MMM")</f>
         <v>Nov</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="63" t="str">
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="61" t="str">
         <f>TEXT(Q5,"MMM")</f>
         <v>Dec</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
       <c r="U3" s="7"/>
-      <c r="V3" s="63" t="str">
+      <c r="V3" s="61" t="str">
         <f>TEXT(V5,"MMM")</f>
         <v>Jan</v>
       </c>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="63" t="str">
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="61" t="str">
         <f>TEXT(Z5,"MMM")</f>
         <v>Feb</v>
       </c>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="63" t="str">
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="61" t="str">
         <f>TEXT(AD5,"MMM")</f>
         <v>Mar</v>
       </c>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
       <c r="AH3" s="7"/>
-      <c r="AI3" s="63" t="str">
+      <c r="AI3" s="61" t="str">
         <f>TEXT(AI5,"MMM")</f>
         <v>Apr</v>
       </c>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="63" t="str">
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="61" t="str">
         <f>TEXT(AM5,"MMM")</f>
         <v>May</v>
       </c>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="65"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="63"/>
       <c r="AQ3" s="6" t="str">
         <f>TEXT(AQ5,"MMM")</f>
         <v>Jun</v>
@@ -1570,13 +1570,13 @@
         <v>29</v>
       </c>
       <c r="E9" s="27">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="30">
         <v>45940</v>
       </c>
       <c r="G9" s="30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H9" s="24"/>
       <c r="I9" s="25"/>
@@ -1628,14 +1628,14 @@
       </c>
     </row>
     <row r="10" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C10" s="67" t="s">
-        <v>44</v>
+      <c r="C10" s="60" t="s">
+        <v>43</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>30</v>
       </c>
       <c r="E10" s="27">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="F10" s="30">
         <v>45945</v>
@@ -1703,7 +1703,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="30">
-        <v>45936</v>
+        <v>45984</v>
       </c>
       <c r="G11" s="30">
         <v>45936</v>
@@ -1746,15 +1746,15 @@
       <c r="AQ11" s="23"/>
       <c r="AS11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-7</v>
       </c>
       <c r="AT11" s="54">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-21</v>
       </c>
       <c r="AU11" s="56">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-315</v>
       </c>
     </row>
     <row r="12" spans="3:47" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1822,7 +1822,7 @@
         <v>35</v>
       </c>
       <c r="E13" s="58">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F13" s="30">
         <v>45936</v>
@@ -1887,7 +1887,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="F14" s="30">
         <v>45967</v>
@@ -1952,7 +1952,7 @@
         <v>32</v>
       </c>
       <c r="E15" s="58">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
       <c r="F15" s="30">
         <v>45967</v>
@@ -2011,16 +2011,16 @@
     </row>
     <row r="16" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="33" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>30</v>
       </c>
       <c r="E16" s="58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F16" s="30">
-        <v>45970</v>
+        <v>45984</v>
       </c>
       <c r="G16" s="30">
         <v>46022</v>
@@ -2063,15 +2063,15 @@
       <c r="AQ16" s="23"/>
       <c r="AS16" s="8">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AT16" s="54">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AU16" s="56">
         <f t="shared" si="2"/>
-        <v>315</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17" spans="3:47" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2133,7 +2133,7 @@
     </row>
     <row r="18" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="33" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>30</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="19" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D19" s="59" t="s">
         <v>32</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="20" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D20" s="33" t="s">
         <v>29</v>
@@ -2328,7 +2328,7 @@
     </row>
     <row r="21" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="33" t="s">
         <v>29</v>
@@ -2450,12 +2450,14 @@
     </row>
     <row r="23" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="58">
+        <v>0</v>
+      </c>
       <c r="F23" s="30">
         <v>45945</v>
       </c>
@@ -2513,7 +2515,7 @@
     </row>
     <row r="24" spans="3:47" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>29</v>
@@ -2719,11 +2721,11 @@
       <c r="C30" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="60" t="s">
+      <c r="D30" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="61"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="66"/>
       <c r="AS30" s="52" t="e">
         <f>SUM(AS8:AS26)</f>
         <v>#VALUE!</v>
@@ -2739,28 +2741,28 @@
     </row>
     <row r="31" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C31" s="43"/>
-      <c r="D31" s="60" t="s">
+      <c r="D31" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="E31" s="60"/>
-      <c r="F31" s="61"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="66"/>
     </row>
     <row r="32" spans="3:47" x14ac:dyDescent="0.2">
       <c r="C32" s="43"/>
-      <c r="D32" s="60" t="s">
+      <c r="D32" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E32" s="60"/>
-      <c r="F32" s="61"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="66"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C33" s="43"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
-      <c r="F33" s="61"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="66"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
@@ -2833,6 +2835,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="V3:Y3"/>
     <mergeCell ref="Z3:AC3"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="D30:F30"/>
@@ -2842,11 +2849,6 @@
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:T3"/>
     <mergeCell ref="AD3:AG3"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="V3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="E8:E26">
